--- a/biology/Botanique/Gleditsia_triacanthos/Gleditsia_triacanthos.xlsx
+++ b/biology/Botanique/Gleditsia_triacanthos/Gleditsia_triacanthos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gleditsia triacanthos
-Gleditsia triacanthos, le Févier d'Amérique, est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae (légumineuses), de la sous-famille des Caesalpinioideae[1], originaire de l'est de l’Amérique du Nord.
+Gleditsia triacanthos, le Févier d'Amérique, est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae (légumineuses), de la sous-famille des Caesalpinioideae, originaire de l'est de l’Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Févier d'Amérique, févier épineux, févier à trois épines, févier à trois pointes[2], carouge à miel, acacia à trois épines[3] ou épine du Christ.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Févier d'Amérique, févier épineux, févier à trois épines, févier à trois pointes, carouge à miel, acacia à trois épines ou épine du Christ.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre pousse dans la partie est des États-Unis, dans une large part du bassin du Mississippi, depuis le Texas et la Louisiane au sud, jusqu'à l'Iowa, l'Indiana et l'Ohio au nord. À l'ouest, son aire d'extension s'arrête au Kansas et au Nebraska, tandis qu'à l'est elle est arrêtée au pied des monts Appalaches. 
-L'arbre a été introduit en Europe en 1700, date à laquelle il fut planté pour la première fois dans les jardins de Fulham Palace, maison de campagne des évêques de Londres, par l'évêque Henry Compton[4]. Depuis, il est devenu courant dans les régions d'Europe occidentale, centrale et méridionale[1].
-Il apprécie les terrains alluviaux riches et humides même s'il supporte les terrains calcaires plus secs. Il arrive qu'on le plante dans les zones dégagées en vue de couper la force du vent[1].
+L'arbre a été introduit en Europe en 1700, date à laquelle il fut planté pour la première fois dans les jardins de Fulham Palace, maison de campagne des évêques de Londres, par l'évêque Henry Compton. Depuis, il est devenu courant dans les régions d'Europe occidentale, centrale et méridionale.
+Il apprécie les terrains alluviaux riches et humides même s'il supporte les terrains calcaires plus secs. Il arrive qu'on le plante dans les zones dégagées en vue de couper la force du vent.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom Gleditsia provient du botaniste allemand J.G. Gleditsch.
 </t>
@@ -607,9 +625,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre peut vivre entre 120 et 150 ans[1]et mesurer jusqu'à 25 mètres de haut. Sa cime irrégulière, étalée et ovale, porte un feuillage au couvert léger qui évoque celui du robinier faux-acacia, mais en plus fin et clair. Ce sont des arbres de grande taille, épineux, à feuilles caduques. Le tronc et les branches sont garnis d'épines très acérées de type tripartite et de couleur marron brillant qui peuvent atteindre 6 à 9 cm[1]. Il existe des variétés sans épine ou inerme - voir ci-dessous. Le bois du févier est dense (densité supérieure à 1 quand il est vert) pour une croissance assez rapide. Les feuilles sont alternes, paripennées, et mesurent entre 14 et 25 cm. L'espèce est dioïque et très mellifère. Les fleurs, groupées en grappes, apparaissent en juin-juillet et sont mellifères; elles donnent de longues gousses brunâtres aplaties persistantes à la pulpe sucrée et comestible. Ces gousses, portées par le pied femelle, atteignent 20  à 40 cm de long et contiennent 10 graines au plus ressemblant à des grains de café (7 à 10 mm)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre peut vivre entre 120 et 150 anset mesurer jusqu'à 25 mètres de haut. Sa cime irrégulière, étalée et ovale, porte un feuillage au couvert léger qui évoque celui du robinier faux-acacia, mais en plus fin et clair. Ce sont des arbres de grande taille, épineux, à feuilles caduques. Le tronc et les branches sont garnis d'épines très acérées de type tripartite et de couleur marron brillant qui peuvent atteindre 6 à 9 cm. Il existe des variétés sans épine ou inerme - voir ci-dessous. Le bois du févier est dense (densité supérieure à 1 quand il est vert) pour une croissance assez rapide. Les feuilles sont alternes, paripennées, et mesurent entre 14 et 25 cm. L'espèce est dioïque et très mellifère. Les fleurs, groupées en grappes, apparaissent en juin-juillet et sont mellifères; elles donnent de longues gousses brunâtres aplaties persistantes à la pulpe sucrée et comestible. Ces gousses, portées par le pied femelle, atteignent 20  à 40 cm de long et contiennent 10 graines au plus ressemblant à des grains de café (7 à 10 mm).
 Les graines sont dispersées par les herbivores (bétail et chevaux notamment) qui consomment les gousses et rejettent les graines intactes dans leurs déjections.
 </t>
         </is>
@@ -639,7 +659,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">‘Inermis’ : variété dépourvue d'épines sur le tronc et les branches, contrairement au type.
 ‘Sunburst’ : variété dépourvue d'épines. Les pousses  et feuilles sont initialement jaune pâle puis vert clair, avant de prendre une teinte dorée à l'automne.
@@ -674,9 +696,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le févier d'Amérique est utilisé en Europe et en Amérique du Nord comme arbre d'ornement (essentiellement la variété ou le cultivar inermis, sans épine), notamment comme arbre d'alignement dans les villes. Il est apprécié pour son port majestueux, avec son tronc assez haut et régulier portant un houppier léger et clair composé d'un feuillage fin, avec des branches qui retombent en « drapé ». On utilise plus anecdotiquement la forme sauvage épineuse pour faire des haies infranchissables, en profitant de ses épines[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le févier d'Amérique est utilisé en Europe et en Amérique du Nord comme arbre d'ornement (essentiellement la variété ou le cultivar inermis, sans épine), notamment comme arbre d'alignement dans les villes. Il est apprécié pour son port majestueux, avec son tronc assez haut et régulier portant un houppier léger et clair composé d'un feuillage fin, avec des branches qui retombent en « drapé ». On utilise plus anecdotiquement la forme sauvage épineuse pour faire des haies infranchissables, en profitant de ses épines.
 Cet arbre ne pousse pas en quantité suffisante pour alimenter une filière.	
 Très durable, le bois est utilisé pour faire des poteaux et des traverses de chemin de fer.
 Les tourneurs sur bois apprécient ce bois dur et dense.
@@ -712,10 +736,12 @@
           <t>Composés actifs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve dans la plante un alcaloïde nommé triacanthine. L'intérêt médical de cette substance a été ponctuellement étudié dans les années 1960-70 sans aboutir à une utilisation thérapeutique. En 2019, une nouvelle étude montre un effet in-vitro et sur un modèle souris dans le cadre du cancer de la vessie[5].
-La plante comporte aussi des polyphénols, des triterpènes, des stérols et des saponines[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve dans la plante un alcaloïde nommé triacanthine. L'intérêt médical de cette substance a été ponctuellement étudié dans les années 1960-70 sans aboutir à une utilisation thérapeutique. En 2019, une nouvelle étude montre un effet in-vitro et sur un modèle souris dans le cadre du cancer de la vessie.
+La plante comporte aussi des polyphénols, des triterpènes, des stérols et des saponines.
 </t>
         </is>
       </c>
